--- a/Openpyxl Tutorial/chart.xlsx
+++ b/Openpyxl Tutorial/chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16787\Documents\GitHub\Excel-Python-Playing-Together\Excel-Python-Playing-Together\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16787\Documents\GitHub\Excel-Python-Playing-Together\Excel-Python-Playing-Together\Openpyxl Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E477FE-EDE8-4289-8D25-79CCB2F0A97F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE8F6FF-1EB3-4947-AC9F-733D2DBFC780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Defects" sheetId="1" r:id="rId1"/>
@@ -5683,7 +5683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -15561,7 +15561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>

--- a/Openpyxl Tutorial/chart.xlsx
+++ b/Openpyxl Tutorial/chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16787\Documents\GitHub\Excel-Python-Playing-Together\Excel-Python-Playing-Together\Openpyxl Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE8F6FF-1EB3-4947-AC9F-733D2DBFC780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C695C3D-CCFC-4862-BB90-B8469C213FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5684,7 +5684,7 @@
   <dimension ref="A1:W70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
